--- a/data/trans_bre/LAWTONB_2R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.46495429041117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15.41173606034916</v>
+        <v>15.41173606034915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2296911724224483</v>
@@ -649,7 +649,7 @@
         <v>0.4211231205801031</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4089042634421038</v>
+        <v>0.4089042634421035</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8212372651340499</v>
+        <v>0.1047498656988157</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.002910540447838</v>
+        <v>3.352795159762287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.331192851299524</v>
+        <v>5.12951796571846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.06106795951552</v>
+        <v>9.717510748773348</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02569547276816163</v>
+        <v>-0.0008046206149980498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08720044684700956</v>
+        <v>0.09721778107861664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1743593011717022</v>
+        <v>0.1692428982502841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2385644352844111</v>
+        <v>0.2334693261448866</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.51126291811197</v>
+        <v>12.49734794185632</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.17881613643725</v>
+        <v>16.00002372596072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.0861218120684</v>
+        <v>17.68151080523869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.85632721794623</v>
+        <v>20.95031522815683</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5059203336544486</v>
+        <v>0.5020996727085275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6052733608612325</v>
+        <v>0.6074669300315855</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7048635275323154</v>
+        <v>0.7428291101399148</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6111626381680917</v>
+        <v>0.6306618496833792</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>17.22064558989504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.164009838434385</v>
+        <v>8.164009838434389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3470965841874767</v>
@@ -749,7 +749,7 @@
         <v>1.449323714986069</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4999288282224507</v>
+        <v>0.499928828222451</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.231324995428892</v>
+        <v>-8.116774607767258</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.71720911226293</v>
+        <v>-2.999896665367143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.397414707925606</v>
+        <v>8.324721446188436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.060179322392594</v>
+        <v>2.986481847894139</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3779215501830047</v>
+        <v>-0.4354072682961908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2076713242442558</v>
+        <v>-0.1794019623149118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5044844033034984</v>
+        <v>0.5289342700973316</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1584175135359438</v>
+        <v>0.1552984227802885</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.28662260217816</v>
+        <v>18.56068261799566</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.20073149161349</v>
+        <v>21.03123824189364</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25.78360636212588</v>
+        <v>26.1296532612858</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.9011645428441</v>
+        <v>13.40395252541732</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.730779408467092</v>
+        <v>1.553347538746431</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.831782466280494</v>
+        <v>1.693924262376846</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.844442818303403</v>
+        <v>2.928676061113898</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9098813621337154</v>
+        <v>0.9822745791154819</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.98704899226208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.110214035855297</v>
+        <v>6.110214035855299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6436414029940228</v>
@@ -849,7 +849,7 @@
         <v>0.984331392600348</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4318169394313768</v>
+        <v>0.4318169394313771</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.002743295479551</v>
+        <v>-8.59020711481338</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.124849353454776</v>
+        <v>-7.588524021368584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.953043509464367</v>
+        <v>-6.699072050464348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.323336539255187</v>
+        <v>-2.100283019166315</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.239827783977165</v>
+        <v>-0.2926914468656558</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.4884218630666513</v>
+        <v>-0.5171840508061927</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1468693667029225</v>
+        <v>-0.1600714446174182</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>39.94263341098087</v>
+        <v>39.96379948422145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>38.15550812780216</v>
+        <v>35.83132122959016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33.31436662746102</v>
+        <v>35.08930782781427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.79189104966585</v>
+        <v>14.14940553942914</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.92653470962858</v>
+        <v>2.588867915869088</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>6.283113846595211</v>
+        <v>6.785368220093465</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.461853740152269</v>
+        <v>1.362260526573973</v>
       </c>
     </row>
     <row r="13">
@@ -945,7 +945,7 @@
         <v>0.6913107890451495</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6746591260021855</v>
+        <v>0.6746591260021854</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.170112414865785</v>
+        <v>2.37961733636866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.398736499756208</v>
+        <v>5.553899497771908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.828694794339912</v>
+        <v>9.928036001763578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.78447320816592</v>
+        <v>12.71016495189069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1113237704341976</v>
+        <v>0.05963922947762816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1814350066477281</v>
+        <v>0.1790300076886967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4186329202379233</v>
+        <v>0.421589430467814</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4817130734673222</v>
+        <v>0.4823560215091223</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.30415164703527</v>
+        <v>13.26058694070463</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.70980277703286</v>
+        <v>16.77468744165276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.06329193925505</v>
+        <v>19.55491390602534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.03806755525009</v>
+        <v>20.1214999904653</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5596603399537435</v>
+        <v>0.5485644622402166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7060521627576369</v>
+        <v>0.723348098305542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.004327015956567</v>
+        <v>1.053162680334474</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8954861857338248</v>
+        <v>0.898189974069818</v>
       </c>
     </row>
     <row r="16">
